--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaApplicantTestData.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaApplicantTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16320" windowHeight="2805" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16320" windowHeight="2805" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="577">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1734,6 +1734,33 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>CCAvenue: Billing Shipping</t>
+  </si>
+  <si>
+    <t>Click on "CheckOut" button and Verify Title.</t>
+  </si>
+  <si>
+    <t>Enter Card Number , CVV and Expiray Date</t>
+  </si>
+  <si>
+    <t>Send PARes to TermUrl</t>
+  </si>
+  <si>
+    <t>Click on "MakePayment" and verify Title.</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Click on Submit button and Verify Title.</t>
+  </si>
+  <si>
+    <t>Click on OK button and Verify Title.</t>
+  </si>
+  <si>
+    <t>Track Application</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1775,7 @@
     <numFmt numFmtId="168" formatCode="ddmmyyyy"/>
     <numFmt numFmtId="169" formatCode="ddmmyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1794,7 +1821,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="Calibri"/>
@@ -1847,7 +1873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1888,7 +1914,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1897,6 +1922,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2257,14 +2287,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.140625" collapsed="false"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2309,7 +2339,7 @@
       <c r="E2">
         <v>9856236556</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>34743</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2335,7 +2365,7 @@
       <c r="E3">
         <v>7854564123</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>34744</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2361,7 +2391,7 @@
       <c r="E4">
         <v>7896541230</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>34745</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2387,7 +2417,7 @@
       <c r="E5">
         <v>8596321470</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>34746</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2413,7 +2443,7 @@
       <c r="E6">
         <v>8659823147</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <v>34747</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2439,7 +2469,7 @@
       <c r="E7">
         <v>8574963210</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <v>34748</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2465,7 +2495,7 @@
       <c r="E8">
         <v>8423659851</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>34749</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2491,7 +2521,7 @@
       <c r="E9">
         <v>8745963210</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <v>34750</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -2517,7 +2547,7 @@
       <c r="E10">
         <v>8236597401</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>34751</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -2543,7 +2573,7 @@
       <c r="E11">
         <v>8523697410</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <v>34752</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -2569,7 +2599,7 @@
       <c r="E12">
         <v>8352142698</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>34753</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2595,7 +2625,7 @@
       <c r="E13">
         <v>8562323658</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>34754</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2635,8 +2665,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="58.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="64.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2924,10 +2954,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="63.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="102.0" collapsed="true"/>
+    <col min="1" max="1" width="68.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="63.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="102" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2978,9 +3008,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="69.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="60.5703125" collapsed="true"/>
+    <col min="1" max="1" width="69.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3470,17 +3500,17 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="60.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="64.7109375" collapsed="true"/>
+    <col min="1" max="1" width="60.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="64.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3495,37 +3525,93 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="B2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="28" t="s">
         <v>564</v>
       </c>
-      <c r="B3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="B4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
         <v>566</v>
       </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3543,15 +3629,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="9" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3608,7 +3694,7 @@
       <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="22">
         <v>44816</v>
       </c>
     </row>
@@ -3637,7 +3723,7 @@
       <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <v>44537</v>
       </c>
     </row>
@@ -3666,7 +3752,7 @@
       <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <v>45757</v>
       </c>
     </row>
@@ -3695,7 +3781,7 @@
       <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>44380</v>
       </c>
     </row>
@@ -3724,7 +3810,7 @@
       <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>44868</v>
       </c>
     </row>
@@ -3753,7 +3839,7 @@
       <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>46667</v>
       </c>
     </row>
@@ -3782,7 +3868,7 @@
       <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>46647</v>
       </c>
     </row>
@@ -3811,7 +3897,7 @@
       <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>46750</v>
       </c>
     </row>
@@ -3840,7 +3926,7 @@
       <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>44242</v>
       </c>
     </row>
@@ -3869,7 +3955,7 @@
       <c r="H11" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>45402</v>
       </c>
     </row>
@@ -3898,7 +3984,7 @@
       <c r="H12" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>45271</v>
       </c>
     </row>
@@ -3927,7 +4013,7 @@
       <c r="H13" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <v>47339</v>
       </c>
     </row>
@@ -3951,15 +4037,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4564,13 +4650,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="22.28515625" collapsed="true"/>
-    <col min="11" max="11" style="6" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="6" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4663,7 +4749,7 @@
       <c r="N2" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="23">
         <v>43527</v>
       </c>
     </row>
@@ -4710,7 +4796,7 @@
       <c r="N3" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="23">
         <v>43667</v>
       </c>
     </row>
@@ -4757,7 +4843,7 @@
       <c r="N4" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="23">
         <v>43539</v>
       </c>
     </row>
@@ -4804,7 +4890,7 @@
       <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="23">
         <v>43712</v>
       </c>
     </row>
@@ -4851,7 +4937,7 @@
       <c r="N6" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="23">
         <v>43635</v>
       </c>
     </row>
@@ -4898,7 +4984,7 @@
       <c r="N7" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="23">
         <v>43599</v>
       </c>
     </row>
@@ -4945,7 +5031,7 @@
       <c r="N8" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="23">
         <v>43676</v>
       </c>
     </row>
@@ -4992,7 +5078,7 @@
       <c r="N9" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="23">
         <v>43550</v>
       </c>
     </row>
@@ -5039,7 +5125,7 @@
       <c r="N10" t="s">
         <v>72</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="23">
         <v>43546</v>
       </c>
     </row>
@@ -5086,7 +5172,7 @@
       <c r="N11" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="23">
         <v>43662</v>
       </c>
     </row>
@@ -5133,7 +5219,7 @@
       <c r="N12" t="s">
         <v>72</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="23">
         <v>43685</v>
       </c>
     </row>
@@ -5180,7 +5266,7 @@
       <c r="N13" t="s">
         <v>72</v>
       </c>
-      <c r="O13" s="24">
+      <c r="O13" s="23">
         <v>43470</v>
       </c>
     </row>
@@ -5200,9 +5286,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -5355,7 +5441,7 @@
       <c r="X2" t="s">
         <v>244</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Y2" s="24">
         <v>43572</v>
       </c>
     </row>
@@ -5432,7 +5518,7 @@
       <c r="X3" t="s">
         <v>244</v>
       </c>
-      <c r="Y3" s="25">
+      <c r="Y3" s="24">
         <v>43573</v>
       </c>
     </row>
@@ -5509,7 +5595,7 @@
       <c r="X4" t="s">
         <v>244</v>
       </c>
-      <c r="Y4" s="25">
+      <c r="Y4" s="24">
         <v>43574</v>
       </c>
     </row>
@@ -5586,7 +5672,7 @@
       <c r="X5" t="s">
         <v>244</v>
       </c>
-      <c r="Y5" s="25">
+      <c r="Y5" s="24">
         <v>43575</v>
       </c>
     </row>
@@ -5663,7 +5749,7 @@
       <c r="X6" t="s">
         <v>244</v>
       </c>
-      <c r="Y6" s="25">
+      <c r="Y6" s="24">
         <v>43576</v>
       </c>
     </row>
@@ -5740,7 +5826,7 @@
       <c r="X7" t="s">
         <v>244</v>
       </c>
-      <c r="Y7" s="25">
+      <c r="Y7" s="24">
         <v>43577</v>
       </c>
     </row>
@@ -5817,7 +5903,7 @@
       <c r="X8" t="s">
         <v>244</v>
       </c>
-      <c r="Y8" s="25">
+      <c r="Y8" s="24">
         <v>43578</v>
       </c>
     </row>
@@ -5894,7 +5980,7 @@
       <c r="X9" t="s">
         <v>244</v>
       </c>
-      <c r="Y9" s="25">
+      <c r="Y9" s="24">
         <v>43600</v>
       </c>
     </row>
@@ -5971,7 +6057,7 @@
       <c r="X10" t="s">
         <v>244</v>
       </c>
-      <c r="Y10" s="25">
+      <c r="Y10" s="24">
         <v>43632</v>
       </c>
     </row>
@@ -6048,7 +6134,7 @@
       <c r="X11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" s="25">
+      <c r="Y11" s="24">
         <v>43664</v>
       </c>
     </row>
@@ -6125,7 +6211,7 @@
       <c r="X12" t="s">
         <v>244</v>
       </c>
-      <c r="Y12" s="25">
+      <c r="Y12" s="24">
         <v>43696</v>
       </c>
     </row>
@@ -6202,7 +6288,7 @@
       <c r="X13" t="s">
         <v>244</v>
       </c>
-      <c r="Y13" s="25">
+      <c r="Y13" s="24">
         <v>43728</v>
       </c>
     </row>
@@ -6221,10 +6307,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6428,15 +6514,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="1" max="1" width="42" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6529,7 +6615,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>567</v>
       </c>
       <c r="B9" t="s">
@@ -6587,9 +6673,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="73.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="1" max="1" width="73.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6741,9 +6827,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="56.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="84.42578125" collapsed="true"/>
+    <col min="1" max="1" width="56.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="84.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6932,10 +7018,10 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaApplicantTestData.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaApplicantTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16320" windowHeight="2805" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16320" windowHeight="2805" tabRatio="819" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,17 @@
     <sheet name="DocuementUploadPage1" sheetId="11" r:id="rId11"/>
     <sheet name="ReviewApplication" sheetId="12" r:id="rId12"/>
     <sheet name="PaymentPage" sheetId="13" r:id="rId13"/>
+    <sheet name="CNLogin" sheetId="14" r:id="rId14"/>
+    <sheet name="ApplicantDetails" sheetId="15" r:id="rId15"/>
+    <sheet name="Interview" sheetId="16" r:id="rId16"/>
+    <sheet name="ConfirmationPop" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="681">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1761,6 +1765,318 @@
   </si>
   <si>
     <t>Track Application</t>
+  </si>
+  <si>
+    <t>Welcome To Ghana Embassy</t>
+  </si>
+  <si>
+    <t>After putting the Url Verify the Title of Consulate login page.</t>
+  </si>
+  <si>
+    <t>Enter Consulate Id and Access Code</t>
+  </si>
+  <si>
+    <t>After entering valid Consulate id and Access code check Bucket page is displayed.</t>
+  </si>
+  <si>
+    <t>New Application</t>
+  </si>
+  <si>
+    <t>Check whether application is present in New Application bucket.</t>
+  </si>
+  <si>
+    <t>Applicant Dashboard</t>
+  </si>
+  <si>
+    <t>Check whether we navigate to Applicant dashboard page upon clicking on New Application.</t>
+  </si>
+  <si>
+    <t>Verify the Visa Fee of the application</t>
+  </si>
+  <si>
+    <t>Verify the Visa Fee of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Full name of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the full name of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Passport number of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Passport number of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the BirthDate of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the BirthDate of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Passport Issued date of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Passport issued date of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Passport Expiry date of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Passport Expiry date of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Birth Place of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Birth place of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t>Verify the Address Information page is displayed upon clicking on Address Information tab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Former Nationality of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Former Nationality of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the  Nationality of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Nationality of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the  Emial id of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Email id of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the  Phone number of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Phone number of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the  Land Mark of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Land Mark of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the  Address of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Address of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the  City and Pincode of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the City and Pincode of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the  State of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the State of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the  Country of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Country of the application is displayed the same which is provided by Applicant</t>
+  </si>
+  <si>
+    <t>Verify the Travel Information page is displayed upon clicking on Travel Information tab.</t>
+  </si>
+  <si>
+    <t>Verify the Date of Departure which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the  Data of Departure of the Applicant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Ticket number of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Ticket number which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Travel by of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Travel By which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Visit Purpose  of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Visit Purpose which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Reference Contact1  of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Reference Contact1 which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Reference1 Address  of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Reference1 Address which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Reference1 City  of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Reference1 City which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Reference1 State  of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Reference1 State which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Reference1 Country  of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Reference1 Country which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Reference1 Full name  of the Applicant </t>
+  </si>
+  <si>
+    <t>Verify the Reference1 Full name which is provided by Applicant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Reference2 Full name  of the Applicant </t>
+  </si>
+  <si>
+    <t>Document Verification</t>
+  </si>
+  <si>
+    <t>Verify the Document Verification page is displayed upon clicking on Document Verification tab.</t>
+  </si>
+  <si>
+    <t>Verify the Travel Information page is displayed</t>
+  </si>
+  <si>
+    <t>Verify the Travel Information page is displayed upon clicking on Back button from Document Verification page.</t>
+  </si>
+  <si>
+    <t>Verify the Address Information page is displayed</t>
+  </si>
+  <si>
+    <t>Verify the  Address Information page is displayed upon clicking on Back button from Travell Infor page.</t>
+  </si>
+  <si>
+    <t>Verify the Applicant Dashboard page is displayed</t>
+  </si>
+  <si>
+    <t>Verify the  Applicant Dashboard page is displayed upon clicking on Back button from Travell Infor page.</t>
+  </si>
+  <si>
+    <t>Verify the  Address Information page is displayed upon clicking on Next button from Applicant Dashboard page.</t>
+  </si>
+  <si>
+    <t>Verify the  Travel Information page is displayed upon clicking on Next button from Address Info page.</t>
+  </si>
+  <si>
+    <t>Verify the Document Verification page is displayed</t>
+  </si>
+  <si>
+    <t>Verify the Document Verification page is displayed upon clicking on Next button from Travel Info page.</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>Check whether Interview Confirmation popup is displayed upon clicking on Interview Schedule.</t>
+  </si>
+  <si>
+    <t>Click on Cancel from Interview Confirmation popup</t>
+  </si>
+  <si>
+    <t>Click on Close from Interview Confirmation popup</t>
+  </si>
+  <si>
+    <t>Check whether confirmation popup is closed upon click on Cancel and we are navigate expected page</t>
+  </si>
+  <si>
+    <t>Check whether confirmation popup is closed upon click on Close and we are navigate expected page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select All check box </t>
+  </si>
+  <si>
+    <t>Select  check box one by one</t>
+  </si>
+  <si>
+    <t>Verify check box one by one</t>
+  </si>
+  <si>
+    <t>Verify all select check box button is selected.</t>
+  </si>
+  <si>
+    <t>Check whether Interview Confirmation popup is displayed upon clicking on Approve button.</t>
+  </si>
+  <si>
+    <t>Click on Cancel from Approve Confirmation popup</t>
+  </si>
+  <si>
+    <t>Check whether confirmation popup is closed upon click on Cancel and we are navigate expected page.</t>
+  </si>
+  <si>
+    <t>Click on Close from Approve Confirmation popup</t>
+  </si>
+  <si>
+    <t>Check whether confirmation popup is closed upon click on Close and we are navigate expected page.</t>
+  </si>
+  <si>
+    <t>Verified and Approved your Application From CN</t>
+  </si>
+  <si>
+    <t>Pass the Comment whether applicantion is approved or Reject.</t>
+  </si>
+  <si>
+    <t>Click on Approve from Approve Confirmation popup</t>
+  </si>
+  <si>
+    <t>Check whether confirmation popup is closed upon click on Approve and we are navigate expected page.</t>
+  </si>
+  <si>
+    <t>Check whether confirmation popup is displayed.</t>
+  </si>
+  <si>
+    <t>Verify the confirmation popup is displayed upon clicking on application which is sent to HCD.</t>
+  </si>
+  <si>
+    <t>Verify the applicant dashboard page is displayed upon clicking on Open button from confirmation popup</t>
+  </si>
+  <si>
+    <t>Verify the  dashboard page is displayed upon clicking on Back button from Applicant dashboard.</t>
+  </si>
+  <si>
+    <t>Verify the applicant dashboard page is remains displayed upon clicking on Cross button from confirmation popup</t>
+  </si>
+  <si>
+    <t>Verify the applicant dashboard page is remains displayed upon clicking on Cancel button from confirmation popup</t>
+  </si>
+  <si>
+    <t>Check whether applicant dashboard page is opened.</t>
+  </si>
+  <si>
+    <t>Check whether  dashboard page is opened.</t>
+  </si>
+  <si>
+    <t>Check whether  dashboard page Is remains  opened.</t>
+  </si>
+  <si>
+    <t>Check whether  dashboard page is remains  opened.</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +2091,7 @@
     <numFmt numFmtId="168" formatCode="ddmmyyyy"/>
     <numFmt numFmtId="169" formatCode="ddmmyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2287,14 +2603,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2659,14 +2975,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="64.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="58.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="64.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2954,10 +3270,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="63.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="102" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="68.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="63.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="102.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,9 +3324,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="69.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="60.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3502,15 +3818,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="64.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="60.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="64.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3528,7 +3844,7 @@
       <c r="A2" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" t="s">
         <v>465</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -3539,7 +3855,7 @@
       <c r="A3" s="28" t="s">
         <v>564</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" t="s">
         <v>465</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -3550,9 +3866,6 @@
       <c r="A4" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>465</v>
-      </c>
       <c r="C4" s="27" t="s">
         <v>569</v>
       </c>
@@ -3561,9 +3874,6 @@
       <c r="A5" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>465</v>
-      </c>
       <c r="C5" s="28" t="s">
         <v>570</v>
       </c>
@@ -3572,9 +3882,6 @@
       <c r="A6" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>465</v>
-      </c>
       <c r="C6" s="27" t="s">
         <v>572</v>
       </c>
@@ -3582,9 +3889,6 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>573</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>465</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>574</v>
@@ -3616,6 +3920,799 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="77.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="98.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>595</v>
+      </c>
+      <c r="B8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>600</v>
+      </c>
+      <c r="B11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>602</v>
+      </c>
+      <c r="B12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>604</v>
+      </c>
+      <c r="B13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>606</v>
+      </c>
+      <c r="B14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>608</v>
+      </c>
+      <c r="B15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C15" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>610</v>
+      </c>
+      <c r="B16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C16" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>612</v>
+      </c>
+      <c r="B17" t="s">
+        <v>465</v>
+      </c>
+      <c r="C17" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>614</v>
+      </c>
+      <c r="B18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>616</v>
+      </c>
+      <c r="B19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C19" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>620</v>
+      </c>
+      <c r="B21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C21" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>621</v>
+      </c>
+      <c r="B22" t="s">
+        <v>465</v>
+      </c>
+      <c r="C22" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>623</v>
+      </c>
+      <c r="B23" t="s">
+        <v>465</v>
+      </c>
+      <c r="C23" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>625</v>
+      </c>
+      <c r="B24" t="s">
+        <v>465</v>
+      </c>
+      <c r="C24" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>627</v>
+      </c>
+      <c r="B25" t="s">
+        <v>465</v>
+      </c>
+      <c r="C25" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>629</v>
+      </c>
+      <c r="B26" t="s">
+        <v>465</v>
+      </c>
+      <c r="C26" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>631</v>
+      </c>
+      <c r="B27" t="s">
+        <v>465</v>
+      </c>
+      <c r="C27" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>633</v>
+      </c>
+      <c r="B28" t="s">
+        <v>465</v>
+      </c>
+      <c r="C28" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>635</v>
+      </c>
+      <c r="B29" t="s">
+        <v>465</v>
+      </c>
+      <c r="C29" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>637</v>
+      </c>
+      <c r="B30" t="s">
+        <v>465</v>
+      </c>
+      <c r="C30" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>639</v>
+      </c>
+      <c r="B31" t="s">
+        <v>465</v>
+      </c>
+      <c r="C31" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>627</v>
+      </c>
+      <c r="B32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>629</v>
+      </c>
+      <c r="B33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C33" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>631</v>
+      </c>
+      <c r="B34" t="s">
+        <v>465</v>
+      </c>
+      <c r="C34" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>633</v>
+      </c>
+      <c r="B35" t="s">
+        <v>465</v>
+      </c>
+      <c r="C35" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>635</v>
+      </c>
+      <c r="B36" t="s">
+        <v>465</v>
+      </c>
+      <c r="C36" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>640</v>
+      </c>
+      <c r="B37" t="s">
+        <v>465</v>
+      </c>
+      <c r="C37" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>642</v>
+      </c>
+      <c r="B38" t="s">
+        <v>465</v>
+      </c>
+      <c r="C38" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>644</v>
+      </c>
+      <c r="B39" t="s">
+        <v>465</v>
+      </c>
+      <c r="C39" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>646</v>
+      </c>
+      <c r="B40" t="s">
+        <v>465</v>
+      </c>
+      <c r="C40" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>644</v>
+      </c>
+      <c r="B41" t="s">
+        <v>465</v>
+      </c>
+      <c r="C41" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>642</v>
+      </c>
+      <c r="B42" t="s">
+        <v>465</v>
+      </c>
+      <c r="C42" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>650</v>
+      </c>
+      <c r="B43" t="s">
+        <v>465</v>
+      </c>
+      <c r="C43" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>667</v>
+      </c>
+      <c r="B44" t="s">
+        <v>465</v>
+      </c>
+      <c r="C44" t="s">
+        <v>668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="55.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="91.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>659</v>
+      </c>
+      <c r="B6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="100.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>665</v>
+      </c>
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>677</v>
+      </c>
+      <c r="B7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>680</v>
+      </c>
+      <c r="B10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3624,20 +4721,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4037,15 +5134,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4650,13 +5747,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="6" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="22.28515625" collapsed="true"/>
+    <col min="11" max="11" style="6" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -5286,9 +6383,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -6302,15 +7399,15 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -6515,14 +7612,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="60.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6673,9 +7770,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="73.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="52.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6827,9 +7924,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="84.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="56.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="84.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7018,7 +8115,7 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:AlternateContent>
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaApplicantTestData.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaApplicantTestData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="681">
   <si>
     <t>Visa_Type</t>
   </si>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaApplicantTestData.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaApplicantTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16320" windowHeight="2805" tabRatio="819" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16320" windowHeight="2805" tabRatio="944" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="ApplicantDetails" sheetId="15" r:id="rId15"/>
     <sheet name="Interview" sheetId="16" r:id="rId16"/>
     <sheet name="ConfirmationPop" sheetId="17" r:id="rId17"/>
+    <sheet name="DocumentPop" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="708">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1337,9 +1338,6 @@
   </si>
   <si>
     <t>Application ID is after SignUp</t>
-  </si>
-  <si>
-    <t>Mohan</t>
   </si>
   <si>
     <t>Patil</t>
@@ -2077,6 +2075,90 @@
   </si>
   <si>
     <t>Check whether  dashboard page is remains  opened.</t>
+  </si>
+  <si>
+    <t>Confirmed air ticket</t>
+  </si>
+  <si>
+    <t>Recent passport size photo</t>
+  </si>
+  <si>
+    <t>Yellow fever vaccination</t>
+  </si>
+  <si>
+    <t>Covering letter</t>
+  </si>
+  <si>
+    <t>ID proof of reference</t>
+  </si>
+  <si>
+    <t>Original invitation letter</t>
+  </si>
+  <si>
+    <t>Proof of transit valid visa</t>
+  </si>
+  <si>
+    <t>Check whether document window is opened upon making click on document(Confirmed air ticket).</t>
+  </si>
+  <si>
+    <t>Check whether document window is opened upon making click on document(Recent passport size photo).</t>
+  </si>
+  <si>
+    <t>Check whether document window is opened upon making click on document(Yellow fever vaccination).</t>
+  </si>
+  <si>
+    <t>Check whether document window is opened upon making click on document(Covering letter).</t>
+  </si>
+  <si>
+    <t>Check whether document window is opened upon making click on document(ID proof of reference).</t>
+  </si>
+  <si>
+    <t>Check whether document window is opened upon making click on document(Original invitation letter).</t>
+  </si>
+  <si>
+    <t>Check whether document window is opened upon making click on document(Proof of transit valid visa).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on close button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on cross button </t>
+  </si>
+  <si>
+    <t>Check whether document window is closed upon click on close and we are navigate expected page</t>
+  </si>
+  <si>
+    <t>Check whether document window is closed upon click on cross and we are navigate expected page</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Click on Cancel from Reject Confirmation popup</t>
+  </si>
+  <si>
+    <t>Click on Cross from Reject Confirmation popup</t>
+  </si>
+  <si>
+    <t>Check whether confirmation popup is closed upon click on Cross and we are navigate expected page.</t>
+  </si>
+  <si>
+    <t>Click on Reject from Reject Confirmation popup</t>
+  </si>
+  <si>
+    <t>Check whether confirmation popup is closed upon click on Reject and we are navigate expected page.</t>
+  </si>
+  <si>
+    <t>Reason of the application rejection</t>
+  </si>
+  <si>
+    <t>Documents are missing</t>
+  </si>
+  <si>
+    <t>Kotoka International Airport</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2173,7 @@
     <numFmt numFmtId="168" formatCode="ddmmyyyy"/>
     <numFmt numFmtId="169" formatCode="ddmmyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2143,6 +2225,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2189,7 +2283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2243,6 +2337,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2998,35 +3096,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" t="s">
         <v>484</v>
-      </c>
-      <c r="B3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3034,29 +3132,29 @@
         <v>395</v>
       </c>
       <c r="C5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" t="s">
         <v>489</v>
-      </c>
-      <c r="B6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C6" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C7" t="s">
         <v>491</v>
-      </c>
-      <c r="B7" t="s">
-        <v>465</v>
-      </c>
-      <c r="C7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3064,21 +3162,21 @@
         <v>338</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3086,10 +3184,10 @@
         <v>363</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3097,10 +3195,10 @@
         <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3108,10 +3206,10 @@
         <v>255</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3119,10 +3217,10 @@
         <v>251</v>
       </c>
       <c r="B13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3130,10 +3228,10 @@
         <v>253</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3141,21 +3239,21 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3163,10 +3261,10 @@
         <v>371</v>
       </c>
       <c r="B17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3174,10 +3272,10 @@
         <v>383</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3185,10 +3283,10 @@
         <v>235</v>
       </c>
       <c r="B19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3196,10 +3294,10 @@
         <v>241</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3207,10 +3305,10 @@
         <v>237</v>
       </c>
       <c r="B21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3218,10 +3316,10 @@
         <v>239</v>
       </c>
       <c r="B22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3229,29 +3327,29 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>496</v>
+      </c>
+      <c r="C25" t="s">
         <v>497</v>
-      </c>
-      <c r="C25" t="s">
-        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -3289,24 +3387,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" t="s">
         <v>516</v>
-      </c>
-      <c r="B3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C3" t="s">
-        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -3342,470 +3440,470 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C13" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C21" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C25" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C39" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C41" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C42" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C44" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C45" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B46" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C46" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B47" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C47" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -3842,74 +3940,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>564</v>
-      </c>
-      <c r="B3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>568</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
+      </c>
+      <c r="B5" t="s">
+        <v>464</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>571</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="B7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>573</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="B8" s="27"/>
+        <v>575</v>
+      </c>
+      <c r="B8" t="s">
+        <v>464</v>
+      </c>
       <c r="C8" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="B9" s="27"/>
+        <v>565</v>
+      </c>
+      <c r="B9" t="s">
+        <v>464</v>
+      </c>
       <c r="C9" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3927,7 +4041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3951,46 +4065,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" t="s">
         <v>577</v>
-      </c>
-      <c r="B2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" t="s">
         <v>581</v>
-      </c>
-      <c r="B5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C5" t="s">
-        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -4003,7 +4117,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B45"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4026,475 +4140,475 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" t="s">
         <v>583</v>
-      </c>
-      <c r="B2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" t="s">
         <v>585</v>
-      </c>
-      <c r="B3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" t="s">
         <v>587</v>
-      </c>
-      <c r="B4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" t="s">
         <v>589</v>
-      </c>
-      <c r="B5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C5" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" t="s">
         <v>591</v>
-      </c>
-      <c r="B6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C6" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>592</v>
+      </c>
+      <c r="B7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C7" t="s">
         <v>593</v>
-      </c>
-      <c r="B7" t="s">
-        <v>465</v>
-      </c>
-      <c r="C7" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" t="s">
         <v>595</v>
-      </c>
-      <c r="B8" t="s">
-        <v>465</v>
-      </c>
-      <c r="C8" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C9" t="s">
         <v>597</v>
-      </c>
-      <c r="B9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C9" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>599</v>
+      </c>
+      <c r="B11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C11" t="s">
         <v>600</v>
-      </c>
-      <c r="B11" t="s">
-        <v>465</v>
-      </c>
-      <c r="C11" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>601</v>
+      </c>
+      <c r="B12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" t="s">
         <v>602</v>
-      </c>
-      <c r="B12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>603</v>
+      </c>
+      <c r="B13" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" t="s">
         <v>604</v>
-      </c>
-      <c r="B13" t="s">
-        <v>465</v>
-      </c>
-      <c r="C13" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>605</v>
+      </c>
+      <c r="B14" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" t="s">
         <v>606</v>
-      </c>
-      <c r="B14" t="s">
-        <v>465</v>
-      </c>
-      <c r="C14" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>607</v>
+      </c>
+      <c r="B15" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" t="s">
         <v>608</v>
-      </c>
-      <c r="B15" t="s">
-        <v>465</v>
-      </c>
-      <c r="C15" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>609</v>
+      </c>
+      <c r="B16" t="s">
+        <v>464</v>
+      </c>
+      <c r="C16" t="s">
         <v>610</v>
-      </c>
-      <c r="B16" t="s">
-        <v>465</v>
-      </c>
-      <c r="C16" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B17" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" t="s">
         <v>612</v>
-      </c>
-      <c r="B17" t="s">
-        <v>465</v>
-      </c>
-      <c r="C17" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>613</v>
+      </c>
+      <c r="B18" t="s">
+        <v>464</v>
+      </c>
+      <c r="C18" t="s">
         <v>614</v>
-      </c>
-      <c r="B18" t="s">
-        <v>465</v>
-      </c>
-      <c r="C18" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>615</v>
+      </c>
+      <c r="B19" t="s">
+        <v>464</v>
+      </c>
+      <c r="C19" t="s">
         <v>616</v>
-      </c>
-      <c r="B19" t="s">
-        <v>465</v>
-      </c>
-      <c r="C19" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>620</v>
+      </c>
+      <c r="B22" t="s">
+        <v>464</v>
+      </c>
+      <c r="C22" t="s">
         <v>621</v>
-      </c>
-      <c r="B22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C22" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>622</v>
+      </c>
+      <c r="B23" t="s">
+        <v>464</v>
+      </c>
+      <c r="C23" t="s">
         <v>623</v>
-      </c>
-      <c r="B23" t="s">
-        <v>465</v>
-      </c>
-      <c r="C23" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>624</v>
+      </c>
+      <c r="B24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C24" t="s">
         <v>625</v>
-      </c>
-      <c r="B24" t="s">
-        <v>465</v>
-      </c>
-      <c r="C24" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>626</v>
+      </c>
+      <c r="B25" t="s">
+        <v>464</v>
+      </c>
+      <c r="C25" t="s">
         <v>627</v>
-      </c>
-      <c r="B25" t="s">
-        <v>465</v>
-      </c>
-      <c r="C25" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>628</v>
+      </c>
+      <c r="B26" t="s">
+        <v>464</v>
+      </c>
+      <c r="C26" t="s">
         <v>629</v>
-      </c>
-      <c r="B26" t="s">
-        <v>465</v>
-      </c>
-      <c r="C26" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>630</v>
+      </c>
+      <c r="B27" t="s">
+        <v>464</v>
+      </c>
+      <c r="C27" t="s">
         <v>631</v>
-      </c>
-      <c r="B27" t="s">
-        <v>465</v>
-      </c>
-      <c r="C27" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B28" t="s">
+        <v>464</v>
+      </c>
+      <c r="C28" t="s">
         <v>633</v>
-      </c>
-      <c r="B28" t="s">
-        <v>465</v>
-      </c>
-      <c r="C28" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>634</v>
+      </c>
+      <c r="B29" t="s">
+        <v>464</v>
+      </c>
+      <c r="C29" t="s">
         <v>635</v>
-      </c>
-      <c r="B29" t="s">
-        <v>465</v>
-      </c>
-      <c r="C29" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>636</v>
+      </c>
+      <c r="B30" t="s">
+        <v>464</v>
+      </c>
+      <c r="C30" t="s">
         <v>637</v>
-      </c>
-      <c r="B30" t="s">
-        <v>465</v>
-      </c>
-      <c r="C30" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C31" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>626</v>
+      </c>
+      <c r="B32" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32" t="s">
         <v>627</v>
-      </c>
-      <c r="B32" t="s">
-        <v>465</v>
-      </c>
-      <c r="C32" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>628</v>
+      </c>
+      <c r="B33" t="s">
+        <v>464</v>
+      </c>
+      <c r="C33" t="s">
         <v>629</v>
-      </c>
-      <c r="B33" t="s">
-        <v>465</v>
-      </c>
-      <c r="C33" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>630</v>
+      </c>
+      <c r="B34" t="s">
+        <v>464</v>
+      </c>
+      <c r="C34" t="s">
         <v>631</v>
-      </c>
-      <c r="B34" t="s">
-        <v>465</v>
-      </c>
-      <c r="C34" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>632</v>
+      </c>
+      <c r="B35" t="s">
+        <v>464</v>
+      </c>
+      <c r="C35" t="s">
         <v>633</v>
-      </c>
-      <c r="B35" t="s">
-        <v>465</v>
-      </c>
-      <c r="C35" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>634</v>
+      </c>
+      <c r="B36" t="s">
+        <v>464</v>
+      </c>
+      <c r="C36" t="s">
         <v>635</v>
-      </c>
-      <c r="B36" t="s">
-        <v>465</v>
-      </c>
-      <c r="C36" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>639</v>
+      </c>
+      <c r="B37" t="s">
+        <v>464</v>
+      </c>
+      <c r="C37" t="s">
         <v>640</v>
-      </c>
-      <c r="B37" t="s">
-        <v>465</v>
-      </c>
-      <c r="C37" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>641</v>
+      </c>
+      <c r="B38" t="s">
+        <v>464</v>
+      </c>
+      <c r="C38" t="s">
         <v>642</v>
-      </c>
-      <c r="B38" t="s">
-        <v>465</v>
-      </c>
-      <c r="C38" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>643</v>
+      </c>
+      <c r="B39" t="s">
+        <v>464</v>
+      </c>
+      <c r="C39" t="s">
         <v>644</v>
-      </c>
-      <c r="B39" t="s">
-        <v>465</v>
-      </c>
-      <c r="C39" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>645</v>
+      </c>
+      <c r="B40" t="s">
+        <v>464</v>
+      </c>
+      <c r="C40" t="s">
         <v>646</v>
-      </c>
-      <c r="B40" t="s">
-        <v>465</v>
-      </c>
-      <c r="C40" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C42" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>649</v>
+      </c>
+      <c r="B43" t="s">
+        <v>464</v>
+      </c>
+      <c r="C43" t="s">
         <v>650</v>
-      </c>
-      <c r="B43" t="s">
-        <v>465</v>
-      </c>
-      <c r="C43" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>666</v>
+      </c>
+      <c r="B44" t="s">
+        <v>464</v>
+      </c>
+      <c r="C44" t="s">
         <v>667</v>
-      </c>
-      <c r="B44" t="s">
-        <v>465</v>
-      </c>
-      <c r="C44" t="s">
-        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4621,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4529,57 +4643,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" t="s">
         <v>652</v>
-      </c>
-      <c r="B2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" t="s">
         <v>659</v>
-      </c>
-      <c r="B6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C6" t="s">
-        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +4706,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4614,101 +4728,461 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" t="s">
         <v>663</v>
-      </c>
-      <c r="B3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C3" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" t="s">
         <v>665</v>
-      </c>
-      <c r="B4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C4" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" t="s">
         <v>669</v>
-      </c>
-      <c r="B5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C5" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" t="s">
         <v>671</v>
-      </c>
-      <c r="B6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C6" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>679</v>
+      </c>
+      <c r="B10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C10" t="s">
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="51.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="98.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>680</v>
       </c>
+      <c r="B2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>695</v>
+      </c>
+      <c r="B4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>695</v>
+      </c>
+      <c r="B7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C9" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>695</v>
+      </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C10" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>683</v>
+      </c>
+      <c r="B11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C11" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>694</v>
+      </c>
+      <c r="B12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>695</v>
+      </c>
+      <c r="B13" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>684</v>
+      </c>
+      <c r="B14" t="s">
+        <v>464</v>
+      </c>
+      <c r="C14" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>694</v>
+      </c>
+      <c r="B15" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>695</v>
+      </c>
+      <c r="B16" t="s">
+        <v>464</v>
+      </c>
+      <c r="C16" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>685</v>
+      </c>
+      <c r="C17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>694</v>
+      </c>
+      <c r="C18" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>695</v>
+      </c>
+      <c r="C19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>686</v>
+      </c>
+      <c r="B20" t="s">
+        <v>464</v>
+      </c>
+      <c r="C20" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>694</v>
+      </c>
+      <c r="B21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C21" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>695</v>
+      </c>
+      <c r="B22" t="s">
+        <v>464</v>
+      </c>
+      <c r="C22" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>651</v>
+      </c>
+      <c r="B23" t="s">
+        <v>464</v>
+      </c>
+      <c r="C23" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>700</v>
+      </c>
+      <c r="B24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C24" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>701</v>
+      </c>
+      <c r="B25" t="s">
+        <v>464</v>
+      </c>
+      <c r="C25" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>706</v>
+      </c>
+      <c r="C26" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>703</v>
+      </c>
+      <c r="B27" t="s">
+        <v>464</v>
+      </c>
+      <c r="C27" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>670</v>
+      </c>
+      <c r="B28" t="s">
+        <v>464</v>
+      </c>
+      <c r="C28" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>676</v>
+      </c>
+      <c r="B29" t="s">
+        <v>464</v>
+      </c>
+      <c r="C29" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>677</v>
+      </c>
+      <c r="B30" t="s">
+        <v>464</v>
+      </c>
+      <c r="C30" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>678</v>
+      </c>
+      <c r="B31" t="s">
+        <v>464</v>
+      </c>
+      <c r="C31" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>679</v>
+      </c>
+      <c r="B32" t="s">
+        <v>464</v>
+      </c>
+      <c r="C32" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -7398,8 +7872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7426,7 +7900,7 @@
         <v>406</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
         <v>407</v>
@@ -7445,7 +7919,7 @@
         <v>409</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
         <v>410</v>
@@ -7456,7 +7930,7 @@
         <v>411</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
         <v>412</v>
@@ -7467,7 +7941,7 @@
         <v>413</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C6" t="s">
         <v>414</v>
@@ -7478,7 +7952,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C7" t="s">
         <v>415</v>
@@ -7489,18 +7963,18 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>26</v>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>707</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
         <v>417</v>
@@ -7511,7 +7985,7 @@
         <v>418</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C10" t="s">
         <v>419</v>
@@ -7522,7 +7996,7 @@
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
         <v>420</v>
@@ -7533,7 +8007,7 @@
         <v>425</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C12" t="s">
         <v>422</v>
@@ -7544,7 +8018,7 @@
         <v>421</v>
       </c>
       <c r="B13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C13" t="s">
         <v>423</v>
@@ -7555,7 +8029,7 @@
         <v>421</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C14" t="s">
         <v>424</v>
@@ -7566,7 +8040,7 @@
         <v>426</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C15" t="s">
         <v>431</v>
@@ -7575,21 +8049,24 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>465</v>
-      </c>
       <c r="C18" s="17"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="29"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="30"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
@@ -7612,7 +8089,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7639,7 +8116,7 @@
         <v>428</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>428</v>
@@ -7650,7 +8127,7 @@
         <v>427</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>430</v>
@@ -7661,7 +8138,7 @@
         <v>429</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>432</v>
@@ -7672,7 +8149,7 @@
         <v>433</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
         <v>434</v>
@@ -7680,79 +8157,79 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>698</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>699</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -7788,24 +8265,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>447</v>
-      </c>
-      <c r="B2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" t="s">
         <v>449</v>
-      </c>
-      <c r="B3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C3" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7813,65 +8290,65 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7879,10 +8356,10 @@
         <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -7890,10 +8367,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7901,10 +8378,10 @@
         <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -7942,24 +8419,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>466</v>
-      </c>
-      <c r="B2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" t="s">
         <v>468</v>
-      </c>
-      <c r="B3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7967,21 +8444,21 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7989,10 +8466,10 @@
         <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -8000,65 +8477,65 @@
         <v>425</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C10" t="s">
         <v>478</v>
-      </c>
-      <c r="B10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C10" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -8066,10 +8543,10 @@
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -8077,21 +8554,21 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaApplicantTestData.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaApplicantTestData.xlsx
@@ -25,13 +25,14 @@
     <sheet name="Interview" sheetId="16" r:id="rId16"/>
     <sheet name="ConfirmationPop" sheetId="17" r:id="rId17"/>
     <sheet name="DocumentPop" sheetId="18" r:id="rId18"/>
+    <sheet name="FlaggedCN" sheetId="20" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="721">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1285,9 +1286,6 @@
   </si>
   <si>
     <t>Select Port of Arrival</t>
-  </si>
-  <si>
-    <t>transit visa fees1 INR.2000.0</t>
   </si>
   <si>
     <t>Select visa fee</t>
@@ -1425,9 +1423,6 @@
   </si>
   <si>
     <t>Select the Address</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t xml:space="preserve">Click on "Save and Continue" Button from Address Info page </t>
@@ -2131,34 +2126,79 @@
     <t>Check whether document window is closed upon click on cross and we are navigate expected page</t>
   </si>
   <si>
+    <t>Click on Cancel from Reject Confirmation popup</t>
+  </si>
+  <si>
+    <t>Click on Cross from Reject Confirmation popup</t>
+  </si>
+  <si>
+    <t>Check whether confirmation popup is closed upon click on Cross and we are navigate expected page.</t>
+  </si>
+  <si>
+    <t>Click on Reject from Reject Confirmation popup</t>
+  </si>
+  <si>
+    <t>Check whether confirmation popup is closed upon click on Reject and we are navigate expected page.</t>
+  </si>
+  <si>
+    <t>Reason of the application rejection</t>
+  </si>
+  <si>
+    <t>Documents are missing</t>
+  </si>
+  <si>
+    <t>Kotoka International Airport</t>
+  </si>
+  <si>
+    <t>Multiple entry(12 months) visa INR.25500.0</t>
+  </si>
+  <si>
+    <t>Rajendra</t>
+  </si>
+  <si>
+    <t>Pardeshi</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
     <t>Rohit</t>
   </si>
   <si>
+    <t>Bhushan</t>
+  </si>
+  <si>
+    <t>Mayur</t>
+  </si>
+  <si>
     <t>Rahul</t>
   </si>
   <si>
-    <t>Click on Cancel from Reject Confirmation popup</t>
-  </si>
-  <si>
-    <t>Click on Cross from Reject Confirmation popup</t>
-  </si>
-  <si>
-    <t>Check whether confirmation popup is closed upon click on Cross and we are navigate expected page.</t>
-  </si>
-  <si>
-    <t>Click on Reject from Reject Confirmation popup</t>
-  </si>
-  <si>
-    <t>Check whether confirmation popup is closed upon click on Reject and we are navigate expected page.</t>
-  </si>
-  <si>
-    <t>Reason of the application rejection</t>
-  </si>
-  <si>
-    <t>Documents are missing</t>
-  </si>
-  <si>
-    <t>Kotoka International Airport</t>
+    <t>Some documents are missing</t>
+  </si>
+  <si>
+    <t>Pass the reason for flagged application</t>
+  </si>
+  <si>
+    <t>Check on which page we navigate after click on Flag button</t>
+  </si>
+  <si>
+    <t>Check whether Reject  popup is closed upon click on Flag button and we are navigate expected page</t>
+  </si>
+  <si>
+    <t>Verify the confirmation popup is displayed upon clicking on application which is sent to Flagged bucket</t>
+  </si>
+  <si>
+    <t>Check whether Applicant dashboard is opened</t>
+  </si>
+  <si>
+    <t>Check whether Applicant dashboard is opened upon clicking on Open button from Flagged bucket.</t>
+  </si>
+  <si>
+    <t>Check whether Dashboard is opened</t>
+  </si>
+  <si>
+    <t>Check whether  Dashboard is opened upon clicking on Cancel button from applicant dashboard.</t>
   </si>
 </sst>
 </file>
@@ -2173,7 +2213,7 @@
     <numFmt numFmtId="168" formatCode="ddmmyyyy"/>
     <numFmt numFmtId="169" formatCode="ddmmyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2701,14 +2741,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3074,13 +3114,13 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="58.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="64.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3096,35 +3136,26 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="B3" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="C3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="B4" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="C4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3132,224 +3163,167 @@
         <v>395</v>
       </c>
       <c r="C5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B6" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="C6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>490</v>
-      </c>
-      <c r="B7" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="C7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>338</v>
       </c>
-      <c r="B8" t="s">
-        <v>464</v>
-      </c>
       <c r="C8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="C9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>363</v>
       </c>
-      <c r="B10" t="s">
-        <v>464</v>
-      </c>
       <c r="C10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>249</v>
       </c>
-      <c r="B11" t="s">
-        <v>464</v>
-      </c>
       <c r="C11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>255</v>
       </c>
-      <c r="B12" t="s">
-        <v>464</v>
-      </c>
       <c r="C12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>251</v>
       </c>
-      <c r="B13" t="s">
-        <v>464</v>
-      </c>
       <c r="C13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>253</v>
       </c>
-      <c r="B14" t="s">
-        <v>464</v>
-      </c>
       <c r="C14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>464</v>
-      </c>
       <c r="C15" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="B16" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="C16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>371</v>
       </c>
-      <c r="B17" t="s">
-        <v>464</v>
-      </c>
       <c r="C17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>383</v>
       </c>
-      <c r="B18" t="s">
-        <v>464</v>
-      </c>
       <c r="C18" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>235</v>
       </c>
-      <c r="B19" t="s">
-        <v>464</v>
-      </c>
       <c r="C19" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>241</v>
       </c>
-      <c r="B20" t="s">
-        <v>464</v>
-      </c>
       <c r="C20" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>237</v>
       </c>
-      <c r="B21" t="s">
-        <v>464</v>
-      </c>
       <c r="C21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>239</v>
       </c>
-      <c r="B22" t="s">
-        <v>464</v>
-      </c>
       <c r="C22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>464</v>
-      </c>
       <c r="C23" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="B24" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="C24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -3363,15 +3337,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="63.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="102.0" collapsed="true"/>
+    <col min="1" max="1" width="68.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="63.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="102" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3387,24 +3361,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="B3" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="C3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -3417,14 +3385,14 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="69.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="60.5703125" collapsed="true"/>
+    <col min="1" max="1" width="69.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3440,470 +3408,362 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="B3" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="C3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C9" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>526</v>
-      </c>
-      <c r="B12" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="C12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>561</v>
-      </c>
-      <c r="B13" t="s">
-        <v>464</v>
+        <v>559</v>
       </c>
       <c r="C13" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>527</v>
-      </c>
-      <c r="B14" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="C14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>528</v>
-      </c>
-      <c r="B15" t="s">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="C15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>529</v>
-      </c>
-      <c r="B16" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="C16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>530</v>
-      </c>
-      <c r="B17" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="C17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>531</v>
-      </c>
-      <c r="B18" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="C18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>532</v>
-      </c>
-      <c r="B19" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
       <c r="C19" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>534</v>
-      </c>
-      <c r="B21" t="s">
-        <v>464</v>
+        <v>532</v>
       </c>
       <c r="C21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>535</v>
-      </c>
-      <c r="B22" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="C22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>536</v>
-      </c>
-      <c r="B23" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="C23" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>537</v>
-      </c>
-      <c r="B24" t="s">
-        <v>464</v>
+        <v>535</v>
       </c>
       <c r="C24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>538</v>
-      </c>
-      <c r="B25" t="s">
-        <v>464</v>
+        <v>536</v>
       </c>
       <c r="C25" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>539</v>
-      </c>
-      <c r="B26" t="s">
-        <v>464</v>
+        <v>537</v>
       </c>
       <c r="C26" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>540</v>
-      </c>
-      <c r="B27" t="s">
-        <v>464</v>
+        <v>538</v>
       </c>
       <c r="C27" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>541</v>
-      </c>
-      <c r="B28" t="s">
-        <v>464</v>
+        <v>539</v>
       </c>
       <c r="C28" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>542</v>
-      </c>
-      <c r="B29" t="s">
-        <v>464</v>
+        <v>540</v>
       </c>
       <c r="C29" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>543</v>
-      </c>
-      <c r="B30" t="s">
-        <v>464</v>
+        <v>541</v>
       </c>
       <c r="C30" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>545</v>
-      </c>
-      <c r="B32" t="s">
-        <v>464</v>
+        <v>543</v>
       </c>
       <c r="C32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>546</v>
-      </c>
-      <c r="B33" t="s">
-        <v>464</v>
+        <v>544</v>
       </c>
       <c r="C33" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>547</v>
-      </c>
-      <c r="B34" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="C34" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>548</v>
-      </c>
-      <c r="B35" t="s">
-        <v>464</v>
+        <v>546</v>
       </c>
       <c r="C35" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>549</v>
-      </c>
-      <c r="B36" t="s">
-        <v>464</v>
+        <v>547</v>
       </c>
       <c r="C36" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>550</v>
-      </c>
-      <c r="B37" t="s">
-        <v>464</v>
+        <v>548</v>
       </c>
       <c r="C37" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>551</v>
-      </c>
-      <c r="B38" t="s">
-        <v>464</v>
+        <v>549</v>
       </c>
       <c r="C38" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>552</v>
-      </c>
-      <c r="B39" t="s">
-        <v>464</v>
+        <v>550</v>
       </c>
       <c r="C39" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>553</v>
-      </c>
-      <c r="B40" t="s">
-        <v>464</v>
+        <v>551</v>
       </c>
       <c r="C40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>554</v>
-      </c>
-      <c r="B41" t="s">
-        <v>464</v>
+        <v>552</v>
       </c>
       <c r="C41" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>555</v>
-      </c>
-      <c r="B42" t="s">
-        <v>464</v>
+        <v>553</v>
       </c>
       <c r="C42" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>556</v>
-      </c>
-      <c r="B43" t="s">
-        <v>464</v>
+        <v>554</v>
       </c>
       <c r="C43" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>557</v>
-      </c>
-      <c r="B44" t="s">
-        <v>464</v>
+        <v>555</v>
       </c>
       <c r="C44" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>558</v>
-      </c>
-      <c r="B45" t="s">
-        <v>464</v>
+        <v>556</v>
       </c>
       <c r="C45" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>559</v>
-      </c>
-      <c r="B46" t="s">
-        <v>464</v>
+        <v>557</v>
       </c>
       <c r="C46" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>560</v>
-      </c>
-      <c r="B47" t="s">
-        <v>464</v>
+        <v>558</v>
       </c>
       <c r="C47" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -3917,14 +3777,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="60.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="64.7109375" collapsed="true"/>
+    <col min="1" max="1" width="60.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="64.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3940,90 +3800,66 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
+        <v>560</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="B3" t="s">
-        <v>464</v>
+        <v>561</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="B4" t="s">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="B5" t="s">
-        <v>464</v>
+        <v>567</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="B6" t="s">
-        <v>464</v>
+        <v>568</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="B7" t="s">
-        <v>464</v>
+        <v>570</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="B8" t="s">
-        <v>464</v>
+        <v>573</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>565</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
+        <v>563</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4042,14 +3878,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="77.0" collapsed="true"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="77" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4065,46 +3901,34 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
+        <v>574</v>
       </c>
       <c r="C2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>578</v>
-      </c>
-      <c r="B3" t="s">
-        <v>464</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>576</v>
-      </c>
-      <c r="B4" t="s">
-        <v>464</v>
+        <v>574</v>
       </c>
       <c r="C4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>580</v>
-      </c>
-      <c r="B5" t="s">
-        <v>464</v>
+        <v>578</v>
       </c>
       <c r="C5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -4117,14 +3941,14 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="98.7109375" collapsed="true"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="98.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4140,475 +3964,346 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
+        <v>580</v>
       </c>
       <c r="C2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>584</v>
-      </c>
-      <c r="B3" t="s">
-        <v>464</v>
+        <v>582</v>
       </c>
       <c r="C3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>586</v>
-      </c>
-      <c r="B4" t="s">
-        <v>464</v>
+        <v>584</v>
       </c>
       <c r="C4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>588</v>
-      </c>
-      <c r="B5" t="s">
-        <v>464</v>
+        <v>586</v>
       </c>
       <c r="C5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B6" t="s">
-        <v>464</v>
+        <v>588</v>
       </c>
       <c r="C6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>592</v>
-      </c>
-      <c r="B7" t="s">
-        <v>464</v>
+        <v>590</v>
       </c>
       <c r="C7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>594</v>
-      </c>
-      <c r="B8" t="s">
-        <v>464</v>
+        <v>592</v>
       </c>
       <c r="C8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>596</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
+        <v>594</v>
       </c>
       <c r="C9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>448</v>
-      </c>
-      <c r="B10" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>599</v>
-      </c>
-      <c r="B11" t="s">
-        <v>464</v>
+        <v>597</v>
       </c>
       <c r="C11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>601</v>
-      </c>
-      <c r="B12" t="s">
-        <v>464</v>
+        <v>599</v>
       </c>
       <c r="C12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>603</v>
-      </c>
-      <c r="B13" t="s">
-        <v>464</v>
+        <v>601</v>
       </c>
       <c r="C13" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>605</v>
-      </c>
-      <c r="B14" t="s">
-        <v>464</v>
+        <v>603</v>
       </c>
       <c r="C14" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>607</v>
-      </c>
-      <c r="B15" t="s">
-        <v>464</v>
+        <v>605</v>
       </c>
       <c r="C15" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>609</v>
-      </c>
-      <c r="B16" t="s">
-        <v>464</v>
+        <v>607</v>
       </c>
       <c r="C16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>611</v>
-      </c>
-      <c r="B17" t="s">
-        <v>464</v>
+        <v>609</v>
       </c>
       <c r="C17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>613</v>
-      </c>
-      <c r="B18" t="s">
-        <v>464</v>
+        <v>611</v>
       </c>
       <c r="C18" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>615</v>
-      </c>
-      <c r="B19" t="s">
-        <v>464</v>
+        <v>613</v>
       </c>
       <c r="C19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>483</v>
-      </c>
-      <c r="B20" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="C20" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>619</v>
-      </c>
-      <c r="B21" t="s">
-        <v>464</v>
+        <v>617</v>
       </c>
       <c r="C21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>620</v>
-      </c>
-      <c r="B22" t="s">
-        <v>464</v>
+        <v>618</v>
       </c>
       <c r="C22" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>622</v>
-      </c>
-      <c r="B23" t="s">
-        <v>464</v>
+        <v>620</v>
       </c>
       <c r="C23" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>624</v>
-      </c>
-      <c r="B24" t="s">
-        <v>464</v>
+        <v>622</v>
       </c>
       <c r="C24" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>626</v>
-      </c>
-      <c r="B25" t="s">
-        <v>464</v>
+        <v>624</v>
       </c>
       <c r="C25" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>628</v>
-      </c>
-      <c r="B26" t="s">
-        <v>464</v>
+        <v>626</v>
       </c>
       <c r="C26" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>630</v>
-      </c>
-      <c r="B27" t="s">
-        <v>464</v>
+        <v>628</v>
       </c>
       <c r="C27" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>632</v>
-      </c>
-      <c r="B28" t="s">
-        <v>464</v>
+        <v>630</v>
       </c>
       <c r="C28" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>634</v>
-      </c>
-      <c r="B29" t="s">
-        <v>464</v>
+        <v>632</v>
       </c>
       <c r="C29" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>636</v>
-      </c>
-      <c r="B30" t="s">
-        <v>464</v>
+        <v>634</v>
       </c>
       <c r="C30" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>638</v>
-      </c>
-      <c r="B31" t="s">
-        <v>464</v>
+        <v>636</v>
       </c>
       <c r="C31" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>626</v>
-      </c>
-      <c r="B32" t="s">
-        <v>464</v>
+        <v>624</v>
       </c>
       <c r="C32" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>628</v>
-      </c>
-      <c r="B33" t="s">
-        <v>464</v>
+        <v>626</v>
       </c>
       <c r="C33" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>630</v>
-      </c>
-      <c r="B34" t="s">
-        <v>464</v>
+        <v>628</v>
       </c>
       <c r="C34" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>632</v>
-      </c>
-      <c r="B35" t="s">
-        <v>464</v>
+        <v>630</v>
       </c>
       <c r="C35" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>634</v>
-      </c>
-      <c r="B36" t="s">
-        <v>464</v>
+        <v>632</v>
       </c>
       <c r="C36" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>639</v>
-      </c>
-      <c r="B37" t="s">
-        <v>464</v>
+        <v>637</v>
       </c>
       <c r="C37" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>641</v>
-      </c>
-      <c r="B38" t="s">
-        <v>464</v>
+        <v>639</v>
       </c>
       <c r="C38" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>643</v>
-      </c>
-      <c r="B39" t="s">
-        <v>464</v>
+        <v>641</v>
       </c>
       <c r="C39" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>645</v>
-      </c>
-      <c r="B40" t="s">
-        <v>464</v>
+        <v>643</v>
       </c>
       <c r="C40" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>643</v>
-      </c>
-      <c r="B41" t="s">
-        <v>464</v>
+        <v>641</v>
       </c>
       <c r="C41" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>641</v>
-      </c>
-      <c r="B42" t="s">
-        <v>464</v>
+        <v>639</v>
       </c>
       <c r="C42" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>649</v>
-      </c>
-      <c r="B43" t="s">
-        <v>464</v>
+        <v>647</v>
       </c>
       <c r="C43" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>666</v>
-      </c>
-      <c r="B44" t="s">
-        <v>464</v>
+        <v>664</v>
       </c>
       <c r="C44" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -4621,13 +4316,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="55.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="91.28515625" collapsed="true"/>
+    <col min="1" max="1" width="55.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="91.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4643,57 +4338,42 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
+        <v>649</v>
       </c>
       <c r="C2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C3" t="s">
         <v>653</v>
-      </c>
-      <c r="B3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C3" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C4" t="s">
         <v>654</v>
-      </c>
-      <c r="B4" t="s">
-        <v>464</v>
-      </c>
-      <c r="C4" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>657</v>
-      </c>
-      <c r="B5" t="s">
-        <v>464</v>
+        <v>655</v>
       </c>
       <c r="C5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>658</v>
-      </c>
-      <c r="B6" t="s">
-        <v>464</v>
+        <v>656</v>
       </c>
       <c r="C6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -4706,13 +4386,13 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="58.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="100.42578125" collapsed="true"/>
+    <col min="1" max="1" width="58.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="100.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4728,101 +4408,74 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
+        <v>649</v>
       </c>
       <c r="C2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>662</v>
-      </c>
-      <c r="B3" t="s">
-        <v>464</v>
+        <v>660</v>
       </c>
       <c r="C3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>664</v>
-      </c>
-      <c r="B4" t="s">
-        <v>464</v>
+        <v>662</v>
       </c>
       <c r="C4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>668</v>
-      </c>
-      <c r="B5" t="s">
-        <v>464</v>
+        <v>666</v>
       </c>
       <c r="C5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>670</v>
-      </c>
-      <c r="B6" t="s">
-        <v>464</v>
+        <v>668</v>
       </c>
       <c r="C6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>676</v>
-      </c>
-      <c r="B7" t="s">
-        <v>464</v>
+        <v>674</v>
       </c>
       <c r="C7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>677</v>
-      </c>
-      <c r="B8" t="s">
-        <v>464</v>
+        <v>675</v>
       </c>
       <c r="C8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>678</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
+        <v>676</v>
       </c>
       <c r="C9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>679</v>
-      </c>
-      <c r="B10" t="s">
-        <v>464</v>
+        <v>677</v>
       </c>
       <c r="C10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -4835,14 +4488,14 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="98.7109375" collapsed="true"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="98.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4858,331 +4511,337 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>680</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
+        <v>678</v>
       </c>
       <c r="C2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C3" t="s">
         <v>694</v>
-      </c>
-      <c r="B3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C3" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C4" t="s">
         <v>695</v>
-      </c>
-      <c r="B4" t="s">
-        <v>464</v>
-      </c>
-      <c r="C4" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>681</v>
-      </c>
-      <c r="B5" t="s">
-        <v>464</v>
+        <v>679</v>
       </c>
       <c r="C5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>692</v>
+      </c>
+      <c r="C6" t="s">
         <v>694</v>
-      </c>
-      <c r="B6" t="s">
-        <v>464</v>
-      </c>
-      <c r="C6" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>693</v>
+      </c>
+      <c r="C7" t="s">
         <v>695</v>
-      </c>
-      <c r="B7" t="s">
-        <v>464</v>
-      </c>
-      <c r="C7" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>682</v>
-      </c>
-      <c r="B8" t="s">
-        <v>464</v>
+        <v>680</v>
       </c>
       <c r="C8" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>692</v>
+      </c>
+      <c r="C9" t="s">
         <v>694</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>693</v>
+      </c>
+      <c r="C10" t="s">
         <v>695</v>
-      </c>
-      <c r="B10" t="s">
-        <v>464</v>
-      </c>
-      <c r="C10" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>683</v>
-      </c>
-      <c r="B11" t="s">
-        <v>464</v>
+        <v>681</v>
       </c>
       <c r="C11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>692</v>
+      </c>
+      <c r="C12" t="s">
         <v>694</v>
-      </c>
-      <c r="B12" t="s">
-        <v>464</v>
-      </c>
-      <c r="C12" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>693</v>
+      </c>
+      <c r="C13" t="s">
         <v>695</v>
-      </c>
-      <c r="B13" t="s">
-        <v>464</v>
-      </c>
-      <c r="C13" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>684</v>
-      </c>
-      <c r="B14" t="s">
-        <v>464</v>
+        <v>682</v>
       </c>
       <c r="C14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>692</v>
+      </c>
+      <c r="C15" t="s">
         <v>694</v>
-      </c>
-      <c r="B15" t="s">
-        <v>464</v>
-      </c>
-      <c r="C15" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>693</v>
+      </c>
+      <c r="C16" t="s">
         <v>695</v>
-      </c>
-      <c r="B16" t="s">
-        <v>464</v>
-      </c>
-      <c r="C16" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C17" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>692</v>
+      </c>
+      <c r="C18" t="s">
         <v>694</v>
-      </c>
-      <c r="C18" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>693</v>
+      </c>
+      <c r="C19" t="s">
         <v>695</v>
-      </c>
-      <c r="C19" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>686</v>
-      </c>
-      <c r="B20" t="s">
-        <v>464</v>
+        <v>684</v>
       </c>
       <c r="C20" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>692</v>
+      </c>
+      <c r="C21" t="s">
         <v>694</v>
-      </c>
-      <c r="B21" t="s">
-        <v>464</v>
-      </c>
-      <c r="C21" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>693</v>
+      </c>
+      <c r="C22" t="s">
         <v>695</v>
-      </c>
-      <c r="B22" t="s">
-        <v>464</v>
-      </c>
-      <c r="C22" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>651</v>
-      </c>
-      <c r="B23" t="s">
-        <v>464</v>
+        <v>649</v>
       </c>
       <c r="C23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>700</v>
-      </c>
-      <c r="B24" t="s">
-        <v>464</v>
+        <v>696</v>
       </c>
       <c r="C24" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>701</v>
-      </c>
-      <c r="B25" t="s">
-        <v>464</v>
+        <v>697</v>
       </c>
       <c r="C25" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C26" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>703</v>
-      </c>
-      <c r="B27" t="s">
-        <v>464</v>
+        <v>699</v>
       </c>
       <c r="C27" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>670</v>
-      </c>
-      <c r="B28" t="s">
-        <v>464</v>
+        <v>668</v>
       </c>
       <c r="C28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>676</v>
-      </c>
-      <c r="B29" t="s">
-        <v>464</v>
+        <v>674</v>
       </c>
       <c r="C29" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>677</v>
-      </c>
-      <c r="B30" t="s">
-        <v>464</v>
+        <v>675</v>
       </c>
       <c r="C30" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>678</v>
-      </c>
-      <c r="B31" t="s">
-        <v>464</v>
+        <v>676</v>
       </c>
       <c r="C31" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>679</v>
-      </c>
-      <c r="B32" t="s">
-        <v>464</v>
+        <v>677</v>
       </c>
       <c r="C32" t="s">
-        <v>675</v>
+        <v>673</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="99.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C6" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>677</v>
+      </c>
+      <c r="C8" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -5192,23 +4851,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="9" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5591,6 +5250,12 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G14"/>
       <c r="H14" s="3"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <f ca="1">INDEX($C:$C,RANDBETWEEN(1,COUNTA($C:$C)),1)</f>
+        <v>Vinod</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5608,15 +5273,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6221,13 +5886,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="22.28515625" collapsed="true"/>
-    <col min="11" max="11" style="6" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="6" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -6857,9 +6522,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -7873,15 +7538,15 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7899,9 +7564,6 @@
       <c r="A2" t="s">
         <v>406</v>
       </c>
-      <c r="B2" t="s">
-        <v>464</v>
-      </c>
       <c r="C2" t="s">
         <v>407</v>
       </c>
@@ -7918,9 +7580,6 @@
       <c r="A4" t="s">
         <v>409</v>
       </c>
-      <c r="B4" t="s">
-        <v>464</v>
-      </c>
       <c r="C4" t="s">
         <v>410</v>
       </c>
@@ -7929,9 +7588,6 @@
       <c r="A5" t="s">
         <v>411</v>
       </c>
-      <c r="B5" t="s">
-        <v>464</v>
-      </c>
       <c r="C5" t="s">
         <v>412</v>
       </c>
@@ -7940,9 +7596,6 @@
       <c r="A6" t="s">
         <v>413</v>
       </c>
-      <c r="B6" t="s">
-        <v>464</v>
-      </c>
       <c r="C6" t="s">
         <v>414</v>
       </c>
@@ -7951,9 +7604,6 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>464</v>
-      </c>
       <c r="C7" t="s">
         <v>415</v>
       </c>
@@ -7962,19 +7612,13 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>464</v>
-      </c>
       <c r="C8" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
+        <v>703</v>
       </c>
       <c r="C9" t="s">
         <v>417</v>
@@ -7982,81 +7626,57 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="C10" t="s">
         <v>418</v>
-      </c>
-      <c r="B10" t="s">
-        <v>464</v>
-      </c>
-      <c r="C10" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
-        <v>464</v>
-      </c>
       <c r="C11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="B12" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="C12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B13" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="C13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B14" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="B15" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="C15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" t="s">
-        <v>464</v>
-      </c>
       <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>464</v>
-      </c>
       <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8086,17 +7706,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="1" max="1" width="42" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8113,123 +7733,120 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B3" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>429</v>
-      </c>
-      <c r="B4" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" t="s">
         <v>433</v>
-      </c>
-      <c r="B5" t="s">
-        <v>464</v>
-      </c>
-      <c r="C5" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>698</v>
-      </c>
-      <c r="B6" t="s">
-        <v>464</v>
+        <v>707</v>
       </c>
       <c r="C6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>699</v>
-      </c>
-      <c r="B7" t="s">
-        <v>464</v>
+        <v>705</v>
       </c>
       <c r="C7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B8" t="s">
-        <v>464</v>
+        <v>706</v>
       </c>
       <c r="C8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>566</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
+        <v>564</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="B10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="C10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="B11" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>441</v>
-      </c>
-      <c r="B12" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C12" t="s">
-        <v>444</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -8242,14 +7859,14 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="73.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="1" max="1" width="73.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8265,123 +7882,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>446</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" t="s">
         <v>448</v>
-      </c>
-      <c r="B3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>464</v>
-      </c>
       <c r="C4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B5" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B6" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="B8" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>455</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
-      <c r="B10" t="s">
-        <v>464</v>
-      </c>
       <c r="C10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>464</v>
-      </c>
       <c r="C11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B12" t="s">
-        <v>464</v>
-      </c>
       <c r="C12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -8396,14 +7980,14 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="56.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="84.42578125" collapsed="true"/>
+    <col min="1" max="1" width="56.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="84.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8419,156 +8003,114 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="B2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>464</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="B3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
-        <v>464</v>
-      </c>
       <c r="C4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="C5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>164</v>
       </c>
-      <c r="B6" t="s">
-        <v>464</v>
-      </c>
       <c r="C6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="B7" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="C7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>474</v>
-      </c>
-      <c r="B8" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>476</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="B10" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="C10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="B11" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>479</v>
-      </c>
-      <c r="B12" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="C12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>105</v>
       </c>
-      <c r="B13" t="s">
-        <v>464</v>
-      </c>
       <c r="C13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>464</v>
-      </c>
       <c r="C14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="B15" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="C15" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -8592,7 +8134,7 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaApplicantTestData.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaApplicantTestData.xlsx
@@ -26,13 +26,16 @@
     <sheet name="ConfirmationPop" sheetId="17" r:id="rId17"/>
     <sheet name="DocumentPop" sheetId="18" r:id="rId18"/>
     <sheet name="FlaggedCN" sheetId="20" r:id="rId19"/>
+    <sheet name="HCDLogin" sheetId="21" r:id="rId20"/>
+    <sheet name="HCDGeneralVerifaction" sheetId="22" r:id="rId21"/>
+    <sheet name="ConfirmationPopHCD" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="746">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -2159,9 +2162,6 @@
     <t>Pardeshi</t>
   </si>
   <si>
-    <t>Naveen</t>
-  </si>
-  <si>
     <t>Rohit</t>
   </si>
   <si>
@@ -2199,6 +2199,84 @@
   </si>
   <si>
     <t>Check whether  Dashboard is opened upon clicking on Cancel button from applicant dashboard.</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>After putting the Url Verify the Title of HCD login page.</t>
+  </si>
+  <si>
+    <t>Check whether application is available in certain bucket</t>
+  </si>
+  <si>
+    <t>HCDGeneral Verification</t>
+  </si>
+  <si>
+    <t>Check whether we navigate to General Verification page upon clicking on New Application from HCD.</t>
+  </si>
+  <si>
+    <t>Verify the Visa Fee of the application is displayed the same which is provided by Applicant.</t>
+  </si>
+  <si>
+    <t>HCD Doccument Verification</t>
+  </si>
+  <si>
+    <t>Verify the HCD Doccument Verification page is displayed</t>
+  </si>
+  <si>
+    <t>Verify the HCD Doccument Verification page is displayed upon clicking on Next button from Document Verification page in HCD.</t>
+  </si>
+  <si>
+    <t>Verify the HCD Genral Verification page is displayed</t>
+  </si>
+  <si>
+    <t>Verify the HCD General Verification page is displayed upon clicking on Previous button from Document Verification page in HCD.</t>
+  </si>
+  <si>
+    <t>Verify all the check boxes are selected</t>
+  </si>
+  <si>
+    <t>Check whether check boxes are selected upon clicking on Select All in HCD.</t>
+  </si>
+  <si>
+    <t>Check whether check boxes are selected upon clicking on them one by one in HCD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application is Approved from HCD side </t>
+  </si>
+  <si>
+    <t>Pass the comment in comment field.</t>
+  </si>
+  <si>
+    <t>Verify application is Available Approve Bucket of HCD</t>
+  </si>
+  <si>
+    <t>Check whether the application is available in Approve of HCD after approved.</t>
+  </si>
+  <si>
+    <t>Click on the application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the application which is present approve bucket </t>
+  </si>
+  <si>
+    <t>Check whether confirmation popup is displayed upon clicking on application is present.</t>
+  </si>
+  <si>
+    <t>Check whether HCD General Infor page is opened.</t>
+  </si>
+  <si>
+    <t>Verify the HCD General Infor is displayed upon clicking on Open button from confirmation popup</t>
+  </si>
+  <si>
+    <t>Verify the  dashboard page is displayed upon clicking on Cancel button from HCD Genral Verification.</t>
+  </si>
+  <si>
+    <t>Check the application is in approve bucket of HCD</t>
+  </si>
+  <si>
+    <t>Verify the application is present in approve bucket of CN after approved by HCD</t>
   </si>
 </sst>
 </file>
@@ -2213,7 +2291,7 @@
     <numFmt numFmtId="168" formatCode="ddmmyyyy"/>
     <numFmt numFmtId="169" formatCode="ddmmyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2277,6 +2355,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2323,7 +2407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2380,6 +2464,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2741,14 +2828,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3119,8 +3206,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="64.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="58.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="64.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3342,10 +3429,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="63.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="102" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="68.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="63.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="102.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3390,9 +3477,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="69.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="60.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3410,6 +3497,9 @@
       <c r="A2" s="12" t="s">
         <v>516</v>
       </c>
+      <c r="B2" t="s">
+        <v>720</v>
+      </c>
       <c r="C2" s="12" t="s">
         <v>516</v>
       </c>
@@ -3554,6 +3644,9 @@
       <c r="A21" t="s">
         <v>532</v>
       </c>
+      <c r="B21" t="s">
+        <v>720</v>
+      </c>
       <c r="C21" t="s">
         <v>532</v>
       </c>
@@ -3562,6 +3655,9 @@
       <c r="A22" t="s">
         <v>533</v>
       </c>
+      <c r="B22" t="s">
+        <v>720</v>
+      </c>
       <c r="C22" t="s">
         <v>533</v>
       </c>
@@ -3570,6 +3666,9 @@
       <c r="A23" t="s">
         <v>534</v>
       </c>
+      <c r="B23" t="s">
+        <v>720</v>
+      </c>
       <c r="C23" t="s">
         <v>534</v>
       </c>
@@ -3578,6 +3677,9 @@
       <c r="A24" t="s">
         <v>535</v>
       </c>
+      <c r="B24" t="s">
+        <v>720</v>
+      </c>
       <c r="C24" t="s">
         <v>535</v>
       </c>
@@ -3586,6 +3688,9 @@
       <c r="A25" t="s">
         <v>536</v>
       </c>
+      <c r="B25" t="s">
+        <v>720</v>
+      </c>
       <c r="C25" t="s">
         <v>536</v>
       </c>
@@ -3594,6 +3699,9 @@
       <c r="A26" t="s">
         <v>537</v>
       </c>
+      <c r="B26" t="s">
+        <v>720</v>
+      </c>
       <c r="C26" t="s">
         <v>537</v>
       </c>
@@ -3602,6 +3710,9 @@
       <c r="A27" t="s">
         <v>538</v>
       </c>
+      <c r="B27" t="s">
+        <v>720</v>
+      </c>
       <c r="C27" t="s">
         <v>538</v>
       </c>
@@ -3610,6 +3721,9 @@
       <c r="A28" t="s">
         <v>539</v>
       </c>
+      <c r="B28" t="s">
+        <v>720</v>
+      </c>
       <c r="C28" t="s">
         <v>539</v>
       </c>
@@ -3618,6 +3732,9 @@
       <c r="A29" t="s">
         <v>540</v>
       </c>
+      <c r="B29" t="s">
+        <v>720</v>
+      </c>
       <c r="C29" t="s">
         <v>540</v>
       </c>
@@ -3626,6 +3743,9 @@
       <c r="A30" t="s">
         <v>541</v>
       </c>
+      <c r="B30" t="s">
+        <v>720</v>
+      </c>
       <c r="C30" t="s">
         <v>541</v>
       </c>
@@ -3642,6 +3762,9 @@
       <c r="A32" t="s">
         <v>543</v>
       </c>
+      <c r="B32" t="s">
+        <v>720</v>
+      </c>
       <c r="C32" t="s">
         <v>543</v>
       </c>
@@ -3650,6 +3773,9 @@
       <c r="A33" t="s">
         <v>544</v>
       </c>
+      <c r="B33" t="s">
+        <v>720</v>
+      </c>
       <c r="C33" t="s">
         <v>544</v>
       </c>
@@ -3658,6 +3784,9 @@
       <c r="A34" t="s">
         <v>545</v>
       </c>
+      <c r="B34" t="s">
+        <v>720</v>
+      </c>
       <c r="C34" t="s">
         <v>545</v>
       </c>
@@ -3666,6 +3795,9 @@
       <c r="A35" t="s">
         <v>546</v>
       </c>
+      <c r="B35" t="s">
+        <v>720</v>
+      </c>
       <c r="C35" t="s">
         <v>546</v>
       </c>
@@ -3674,6 +3806,9 @@
       <c r="A36" t="s">
         <v>547</v>
       </c>
+      <c r="B36" t="s">
+        <v>720</v>
+      </c>
       <c r="C36" t="s">
         <v>547</v>
       </c>
@@ -3682,6 +3817,9 @@
       <c r="A37" t="s">
         <v>548</v>
       </c>
+      <c r="B37" t="s">
+        <v>720</v>
+      </c>
       <c r="C37" t="s">
         <v>548</v>
       </c>
@@ -3690,6 +3828,9 @@
       <c r="A38" t="s">
         <v>549</v>
       </c>
+      <c r="B38" t="s">
+        <v>720</v>
+      </c>
       <c r="C38" t="s">
         <v>549</v>
       </c>
@@ -3698,6 +3839,9 @@
       <c r="A39" t="s">
         <v>550</v>
       </c>
+      <c r="B39" t="s">
+        <v>720</v>
+      </c>
       <c r="C39" t="s">
         <v>550</v>
       </c>
@@ -3706,6 +3850,9 @@
       <c r="A40" t="s">
         <v>551</v>
       </c>
+      <c r="B40" t="s">
+        <v>720</v>
+      </c>
       <c r="C40" t="s">
         <v>551</v>
       </c>
@@ -3714,6 +3861,9 @@
       <c r="A41" t="s">
         <v>552</v>
       </c>
+      <c r="B41" t="s">
+        <v>720</v>
+      </c>
       <c r="C41" t="s">
         <v>552</v>
       </c>
@@ -3722,6 +3872,9 @@
       <c r="A42" t="s">
         <v>553</v>
       </c>
+      <c r="B42" t="s">
+        <v>720</v>
+      </c>
       <c r="C42" t="s">
         <v>553</v>
       </c>
@@ -3730,6 +3883,9 @@
       <c r="A43" t="s">
         <v>554</v>
       </c>
+      <c r="B43" t="s">
+        <v>720</v>
+      </c>
       <c r="C43" t="s">
         <v>554</v>
       </c>
@@ -3738,6 +3894,9 @@
       <c r="A44" t="s">
         <v>555</v>
       </c>
+      <c r="B44" t="s">
+        <v>720</v>
+      </c>
       <c r="C44" t="s">
         <v>555</v>
       </c>
@@ -3746,6 +3905,9 @@
       <c r="A45" t="s">
         <v>556</v>
       </c>
+      <c r="B45" t="s">
+        <v>720</v>
+      </c>
       <c r="C45" t="s">
         <v>556</v>
       </c>
@@ -3754,6 +3916,9 @@
       <c r="A46" t="s">
         <v>557</v>
       </c>
+      <c r="B46" t="s">
+        <v>720</v>
+      </c>
       <c r="C46" t="s">
         <v>557</v>
       </c>
@@ -3761,6 +3926,9 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>558</v>
+      </c>
+      <c r="B47" t="s">
+        <v>720</v>
       </c>
       <c r="C47" t="s">
         <v>558</v>
@@ -3782,9 +3950,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="64.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="60.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="64.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3878,14 +4046,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="77" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="77.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3941,14 +4109,14 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B46"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="98.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="98.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4321,8 +4489,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="91.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="91.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,13 +4554,13 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="100.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="58.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="100.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4493,9 +4661,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="98.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="98.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4767,14 +4935,14 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="99.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="99.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4790,18 +4958,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2" t="s">
         <v>712</v>
-      </c>
-      <c r="C2" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C3" t="s">
         <v>714</v>
-      </c>
-      <c r="C3" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4809,23 +4977,23 @@
         <v>668</v>
       </c>
       <c r="C4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C5" t="s">
         <v>717</v>
-      </c>
-      <c r="C5" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C6" t="s">
         <v>719</v>
-      </c>
-      <c r="C6" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4859,15 +5027,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5254,12 +5422,660 @@
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f ca="1">INDEX($C:$C,RANDBETWEEN(1,COUNTA($C:$C)),1)</f>
-        <v>Vinod</v>
+        <v>Pravin</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="269" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="110.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B5" t="s">
+        <v>720</v>
+      </c>
+      <c r="C5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="53.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="116.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B10" t="s">
+        <v>720</v>
+      </c>
+      <c r="C10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>599</v>
+      </c>
+      <c r="C11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>601</v>
+      </c>
+      <c r="B12" t="s">
+        <v>720</v>
+      </c>
+      <c r="C12" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>603</v>
+      </c>
+      <c r="B13" t="s">
+        <v>720</v>
+      </c>
+      <c r="C13" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>605</v>
+      </c>
+      <c r="B14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>607</v>
+      </c>
+      <c r="B15" t="s">
+        <v>720</v>
+      </c>
+      <c r="C15" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>609</v>
+      </c>
+      <c r="B16" t="s">
+        <v>720</v>
+      </c>
+      <c r="C16" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B17" t="s">
+        <v>720</v>
+      </c>
+      <c r="C17" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>613</v>
+      </c>
+      <c r="B18" t="s">
+        <v>720</v>
+      </c>
+      <c r="C18" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>481</v>
+      </c>
+      <c r="C19" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>617</v>
+      </c>
+      <c r="B20" t="s">
+        <v>720</v>
+      </c>
+      <c r="C20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>618</v>
+      </c>
+      <c r="B21" t="s">
+        <v>720</v>
+      </c>
+      <c r="C21" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>620</v>
+      </c>
+      <c r="B22" t="s">
+        <v>720</v>
+      </c>
+      <c r="C22" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>622</v>
+      </c>
+      <c r="B23" t="s">
+        <v>720</v>
+      </c>
+      <c r="C23" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>624</v>
+      </c>
+      <c r="B24" t="s">
+        <v>720</v>
+      </c>
+      <c r="C24" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>626</v>
+      </c>
+      <c r="B25" t="s">
+        <v>720</v>
+      </c>
+      <c r="C25" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>628</v>
+      </c>
+      <c r="B26" t="s">
+        <v>720</v>
+      </c>
+      <c r="C26" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>630</v>
+      </c>
+      <c r="B27" t="s">
+        <v>720</v>
+      </c>
+      <c r="C27" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>632</v>
+      </c>
+      <c r="B28" t="s">
+        <v>720</v>
+      </c>
+      <c r="C28" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>634</v>
+      </c>
+      <c r="B29" t="s">
+        <v>720</v>
+      </c>
+      <c r="C29" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>636</v>
+      </c>
+      <c r="B30" t="s">
+        <v>720</v>
+      </c>
+      <c r="C30" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>624</v>
+      </c>
+      <c r="B31" t="s">
+        <v>720</v>
+      </c>
+      <c r="C31" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>626</v>
+      </c>
+      <c r="C32" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>628</v>
+      </c>
+      <c r="C33" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>630</v>
+      </c>
+      <c r="C34" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>632</v>
+      </c>
+      <c r="C35" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>726</v>
+      </c>
+      <c r="C36" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>729</v>
+      </c>
+      <c r="B37" t="s">
+        <v>720</v>
+      </c>
+      <c r="C37" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>727</v>
+      </c>
+      <c r="C38" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>664</v>
+      </c>
+      <c r="C39" t="s">
+        <v>665</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="105.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>734</v>
+      </c>
+      <c r="C7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>666</v>
+      </c>
+      <c r="B8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>736</v>
+      </c>
+      <c r="C9" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>738</v>
+      </c>
+      <c r="C10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="C11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>741</v>
+      </c>
+      <c r="C12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>675</v>
+      </c>
+      <c r="C13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>676</v>
+      </c>
+      <c r="B14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C14" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>677</v>
+      </c>
+      <c r="B15" t="s">
+        <v>720</v>
+      </c>
+      <c r="C15" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>744</v>
+      </c>
+      <c r="C16" t="s">
+        <v>745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5273,15 +6089,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -5886,13 +6702,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.28515625" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="6" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="22.28515625" collapsed="true"/>
+    <col min="11" max="11" style="6" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -6522,9 +7338,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -7538,15 +8354,15 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -7709,14 +8525,14 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="60.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -7765,7 +8581,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>707</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>435</v>
@@ -7826,7 +8642,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -7836,17 +8652,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -7864,9 +8680,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="73.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="52.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7985,9 +8801,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="84.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="56.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="84.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8134,7 +8950,7 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:AlternateContent>
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
